--- a/AML/AML/WebContent/WEB-INF/classes/CustomerVolumeByBranch.xlsx
+++ b/AML/AML/WebContent/WEB-INF/classes/CustomerVolumeByBranch.xlsx
@@ -47,6 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,9 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -423,10 +428,10 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="16.75" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -439,16 +444,16 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
